--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr1_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr1_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -188,59 +239,59 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="14.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="16.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
-    <col min="9" max="9" width="15.77734375" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
-    <col min="11" max="11" width="15.77734375" customWidth="true"/>
+    <col min="4" max="4" width="13.64453125" customWidth="true"/>
+    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28973414145903026</v>
+        <v>0.011910073067160354</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28860098561105751</v>
+        <v>-0.19992304834068086</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.00079355924070029248</v>
+        <v>-0.17620011949223868</v>
       </c>
       <c r="E3" s="0">
-        <v>-5.3274335713290993e-05</v>
+        <v>-0.011880823309260003</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00026602757331157438</v>
+        <v>-0.019854962810438397</v>
       </c>
       <c r="G3" s="0">
-        <v>-2.5993031960144688e-05</v>
+        <v>0.005066707092631525</v>
       </c>
       <c r="H3" s="0">
-        <v>-9.8989097165030481e-06</v>
+        <v>0.0014141439664377309</v>
       </c>
       <c r="I3" s="0">
-        <v>2.5433043802643643e-05</v>
+        <v>-0.0050729161662438575</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-9.8358003735588007e-06</v>
+        <v>-0.0053051506887295541</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30950890925591695</v>
+        <v>0.17033437282631958</v>
       </c>
       <c r="C4" s="0">
-        <v>0.024492586056945403</v>
+        <v>0.34948760850929034</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>2.2872009187852126e-05</v>
+        <v>0.00045695577839043283</v>
       </c>
       <c r="F4" s="0">
-        <v>2.2153829850677876e-05</v>
+        <v>0.00048537260766636566</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>2.8079558685138435e-05</v>
+        <v>-0.0086511862107321799</v>
       </c>
       <c r="I4" s="0">
-        <v>-2.9599643228666701e-06</v>
+        <v>-0.012611985106721421</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.0045223251052571509</v>
+        <v>0.039078446425917492</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00086751725977041172</v>
+        <v>0.0020122091631893935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.31742310655711081</v>
+        <v>0.27853612899739416</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.006953011205439617</v>
+        <v>0.068875206955132093</v>
       </c>
       <c r="E5" s="0">
-        <v>-8.0603880278623134e-05</v>
+        <v>0.060921293072696094</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0004992531772368095</v>
+        <v>-0.051831906201765844</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00038320372201265391</v>
+        <v>-0.005942483247655268</v>
       </c>
       <c r="H5" s="0">
-        <v>-2.3031380806461895e-05</v>
+        <v>-0.0065063188750927722</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0010953450494504205</v>
+        <v>-0.0039994423659287246</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0022762158615138861</v>
+        <v>0.046685406833688992</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.25735501807104477</v>
+        <v>0.21508314731059675</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.046917961423229723</v>
+        <v>-0.056200107670610247</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-1.5241093883845632e-06</v>
+        <v>0.00083895409026330057</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.0004473037688473157</v>
+        <v>-0.0060482178599036047</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-9.2820347296367089e-05</v>
+        <v>-0.004366759813388201</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0088515617174382364</v>
+        <v>0.00056609450177257602</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0037569171198660323</v>
+        <v>0.0017570550650687911</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.21008282089178215</v>
+        <v>0.40966105938165676</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.042199267048092973</v>
+        <v>0.25656559000764489</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0019493978635493783</v>
+        <v>0.0012223995386877458</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00028842223831259176</v>
+        <v>-0.052818765753213072</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00011335559612100693</v>
+        <v>0.0056910163910561589</v>
       </c>
       <c r="H7" s="0">
-        <v>7.4457334846026214e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0016801442270588088</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0013427787332159213</v>
+        <v>-0.016082328113115746</v>
       </c>
     </row>
     <row r="8">
